--- a/input_file.xlsx
+++ b/input_file.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katdovzh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96B715-6F0A-45C8-8B02-89BF5A1F79D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72450474-C05E-40B7-9DC8-D985C0D4C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>displayName</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>yy7</t>
+  </si>
+  <si>
+    <t>property_id</t>
   </si>
 </sst>
 </file>
@@ -389,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,4 +498,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B57E12-30BB-40C3-BCE9-56FCE6F08DFE}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>360045070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>360347762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>